--- a/(FINAL)/Ejercicio SQL y XML/POO/normal-modificado-validado.xlsx
+++ b/(FINAL)/Ejercicio SQL y XML/POO/normal-modificado-validado.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>normal</t>
   </si>
@@ -64,13 +64,40 @@
   </si>
   <si>
     <t>VALIDADO</t>
+  </si>
+  <si>
+    <t>BOTONES</t>
+  </si>
+  <si>
+    <t>BOOLEANOS</t>
+  </si>
+  <si>
+    <t>Modo Normal</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Normal Modificado c/error</t>
+  </si>
+  <si>
+    <t>Normal Modificado s/error</t>
+  </si>
+  <si>
+    <t>Modo Alta</t>
+  </si>
+  <si>
+    <t>Modo Alta c/error</t>
+  </si>
+  <si>
+    <t>Modo Alta s/error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +121,13 @@
     </font>
     <font>
       <sz val="33"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,15 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,6 +240,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,383 +577,383 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -926,19 +962,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H13"/>
+  <dimension ref="A3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="28.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -963,7 +1005,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
@@ -980,7 +1022,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -997,7 +1039,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -1017,7 +1059,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -1034,7 +1076,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1053,8 +1095,209 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
